--- a/Test Data/excelAdmnDeptAndStaff.xlsx
+++ b/Test Data/excelAdmnDeptAndStaff.xlsx
@@ -9,18 +9,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9A5F9C9-3C85-495C-9DB7-7C77536A17A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C4004A-D377-431F-BDAE-917403103815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StaffUnit" sheetId="1" r:id="rId1"/>
     <sheet name="StaffFunctional" sheetId="3" r:id="rId2"/>
     <sheet name="StaffEdit" sheetId="4" r:id="rId3"/>
-    <sheet name="DeptFunctional" sheetId="5" r:id="rId4"/>
-    <sheet name="DeptMulti" sheetId="6" r:id="rId5"/>
-    <sheet name="DeptEdit" sheetId="7" r:id="rId6"/>
-    <sheet name="ActStaff" sheetId="8" r:id="rId7"/>
+    <sheet name="Task" sheetId="9" r:id="rId4"/>
+    <sheet name="DeptFunctional" sheetId="5" r:id="rId5"/>
+    <sheet name="DeptMulti" sheetId="6" r:id="rId6"/>
+    <sheet name="DeptEdit" sheetId="7" r:id="rId7"/>
+    <sheet name="ActStaff" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="275">
   <si>
     <t>Scenario</t>
   </si>
@@ -76,9 +77,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>NewEmail</t>
-  </si>
-  <si>
     <t>Alphanum</t>
   </si>
   <si>
@@ -133,9 +131,6 @@
     <t>Captain</t>
   </si>
   <si>
-    <t>John@hashtaginfosystem.com</t>
-  </si>
-  <si>
     <t>Ravan@hashtaginfosystem.com</t>
   </si>
   <si>
@@ -292,9 +287,6 @@
     <t>AlreadyRegisteredStaffName</t>
   </si>
   <si>
-    <t xml:space="preserve">Ridham </t>
-  </si>
-  <si>
     <t>Staff Added</t>
   </si>
   <si>
@@ -775,19 +767,97 @@
     <t>Admin Email</t>
   </si>
   <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>adam23@gmail.com</t>
-  </si>
-  <si>
-    <t>Adam@123</t>
-  </si>
-  <si>
-    <t>TotalNew</t>
-  </si>
-  <si>
-    <t>Either edit name or Email</t>
+    <t>DeletedStaffEmail</t>
+  </si>
+  <si>
+    <t>DeletedStaffName</t>
+  </si>
+  <si>
+    <t>newDeletedUser</t>
+  </si>
+  <si>
+    <t>DeletedStaffNameEmail</t>
+  </si>
+  <si>
+    <t>Email belongs to deleted user</t>
+  </si>
+  <si>
+    <t>Name belongs to deleted user</t>
+  </si>
+  <si>
+    <t>Name and Email belongs to deleted user</t>
+  </si>
+  <si>
+    <t>john@hashtaginfosystem.com</t>
+  </si>
+  <si>
+    <t>deletedUser@hashtaginfosystem.com</t>
+  </si>
+  <si>
+    <t>deleteduser@gmail.com</t>
+  </si>
+  <si>
+    <t>deleteduser</t>
+  </si>
+  <si>
+    <t>DeletedStaffNameCaseSensitive</t>
+  </si>
+  <si>
+    <t>Deleteduser</t>
+  </si>
+  <si>
+    <t>deleteduser12@gmail.com</t>
+  </si>
+  <si>
+    <t>NewCred</t>
+  </si>
+  <si>
+    <t>RidhamNew</t>
+  </si>
+  <si>
+    <t>johnew@hashtaginfosystem.com</t>
+  </si>
+  <si>
+    <t>Updated Successfully!</t>
+  </si>
+  <si>
+    <t>TRAINING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deactivation Account </t>
+  </si>
+  <si>
+    <t>Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elfy Site Change/ role change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchy Update per Site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff Checking in Both Portals (per site) </t>
+  </si>
+  <si>
+    <t>Specify Task</t>
+  </si>
+  <si>
+    <t>Specify In Brief</t>
+  </si>
+  <si>
+    <t>NewTask</t>
+  </si>
+  <si>
+    <t>Specify Duration in Mins</t>
+  </si>
+  <si>
+    <t>Type 1 For Done</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>TaskType</t>
   </si>
 </sst>
 </file>
@@ -894,10 +964,12 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF808080"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -985,7 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1029,7 +1101,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1376,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1391,7 +1473,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -1399,7 +1481,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6">
         <v>6</v>
@@ -1408,10 +1490,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1419,7 +1501,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1430,54 +1512,54 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>1001</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>10</v>
@@ -1489,30 +1571,30 @@
         <v>1002</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3">
         <v>5451</v>
@@ -1524,30 +1606,30 @@
         <v>1003</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
@@ -1559,30 +1641,30 @@
         <v>1004</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
@@ -1594,28 +1676,28 @@
         <v>1005</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
@@ -1627,30 +1709,30 @@
         <v>1006</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
@@ -1662,7 +1744,7 @@
         <v>1007</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1686,18 +1768,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF42EF58-90C5-453C-8595-D9B8C06ED586}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
@@ -1705,7 +1787,8 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
     <col min="11" max="11" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" customWidth="1"/>
+    <col min="15" max="15" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1759,22 +1842,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>4</v>
@@ -1786,43 +1869,43 @@
         <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>14</v>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>53</v>
+      <c r="C3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>10</v>
@@ -1833,41 +1916,41 @@
       <c r="N3" s="19">
         <v>2505</v>
       </c>
-      <c r="O3" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>21</v>
+      <c r="O3" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
+      <c r="C4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>10</v>
@@ -1878,41 +1961,39 @@
       <c r="N4" s="19">
         <v>2505</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O4" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>118</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>10</v>
@@ -1924,38 +2005,40 @@
         <v>2505</v>
       </c>
       <c r="O5" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>65</v>
+      <c r="D6" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="K6" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>10</v>
@@ -1967,38 +2050,38 @@
         <v>2505</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>66</v>
+      <c r="C7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>10</v>
@@ -2010,38 +2093,38 @@
         <v>2505</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>66</v>
+      <c r="C8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>10</v>
@@ -2053,38 +2136,218 @@
         <v>2505</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>43</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="19">
+        <v>2505</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="19">
+        <v>2505</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="19">
+        <v>2506</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="19">
+        <v>2506</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{3B1AF0D0-13E9-400B-8098-1D33D1FC3DAA}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{6F8D8158-3367-4C6A-9021-0DDDCD6CA6A1}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{3A373D15-65DC-4167-A872-043DF3512569}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{128A4A14-C502-4987-817D-8FE6D8B320AA}"/>
-    <hyperlink ref="E4:E7" r:id="rId5" display="Admin@123" xr:uid="{B84A08E2-7B4C-4FEE-87C8-008BC15A4BC6}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{74062A4B-1D0E-4FBB-8A4A-2C593D14A1BF}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{3B1AF0D0-13E9-400B-8098-1D33D1FC3DAA}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{6F8D8158-3367-4C6A-9021-0DDDCD6CA6A1}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{3A373D15-65DC-4167-A872-043DF3512569}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{128A4A14-C502-4987-817D-8FE6D8B320AA}"/>
+    <hyperlink ref="E5:E6" r:id="rId5" display="Admin@123" xr:uid="{B84A08E2-7B4C-4FEE-87C8-008BC15A4BC6}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{74062A4B-1D0E-4FBB-8A4A-2C593D14A1BF}"/>
     <hyperlink ref="E8" r:id="rId7" display="Admin@123" xr:uid="{C60D7623-A326-4212-98AE-50065B2DC852}"/>
-    <hyperlink ref="D7" r:id="rId8" xr:uid="{4AF7EF68-B06A-430F-B3A3-0C045F7938DD}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{4AF7EF68-B06A-430F-B3A3-0C045F7938DD}"/>
     <hyperlink ref="D8" r:id="rId9" xr:uid="{F5B7546A-0143-4739-8398-88E59020E795}"/>
+    <hyperlink ref="E9" r:id="rId10" display="Admin@123" xr:uid="{A1FB4B9C-2F5B-4AF3-BDE7-B33766561E08}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{65565686-5753-4529-8961-E7297C88DA4D}"/>
+    <hyperlink ref="E10" r:id="rId12" display="Admin@123" xr:uid="{E7482E02-4134-4B17-A738-FF7571074E3F}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{5BE84484-4EF5-483F-9DA3-9E64CFE47DB6}"/>
+    <hyperlink ref="E11" r:id="rId14" display="Admin@123" xr:uid="{1FDD2845-C69A-496F-BFBC-F9489DE094D3}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{10B38DED-2192-4DD4-9FE5-8A51C23B1013}"/>
+    <hyperlink ref="E12" r:id="rId16" display="Admin@123" xr:uid="{55FA0CA8-DAC0-4DAD-9B90-FC97F88E9FED}"/>
+    <hyperlink ref="D12" r:id="rId17" xr:uid="{D680798B-4224-4DA1-A665-C589A397C78E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B65A5D-B848-4921-9BA3-A5AC244F6E56}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="32.140625" customWidth="1"/>
@@ -2148,22 +2411,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>4</v>
@@ -2175,43 +2438,41 @@
         <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>249</v>
+      <c r="C3" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>117</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>10</v>
@@ -2223,40 +2484,40 @@
         <v>2505</v>
       </c>
       <c r="O3" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
+      <c r="D4" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>10</v>
@@ -2267,41 +2528,39 @@
       <c r="N4" s="19">
         <v>2505</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O4" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>64</v>
+      <c r="E5" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>118</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>10</v>
@@ -2313,38 +2572,38 @@
         <v>2505</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>65</v>
+      <c r="C6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>10</v>
@@ -2356,38 +2615,38 @@
         <v>2505</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>66</v>
+      <c r="C7" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>10</v>
@@ -2399,38 +2658,38 @@
         <v>2505</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>244</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>66</v>
+      <c r="C8" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>10</v>
@@ -2442,32 +2701,404 @@
         <v>2505</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="D17" s="37"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="19">
+        <v>2506</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="19">
+        <v>2506</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="19">
+        <v>2505</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="19">
+        <v>2505</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{2572A213-DFF1-40B6-9A18-421A5AC2F2C6}"/>
-    <hyperlink ref="E4:E7" r:id="rId2" display="Admin@123" xr:uid="{779FCB3E-43DA-400B-95E4-D189C692FE7E}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{75E9F7C3-29B6-47C2-B912-2013ED50F332}"/>
-    <hyperlink ref="E8" r:id="rId4" display="Admin@123" xr:uid="{7DFBF6DE-E37B-43E3-9CFC-AB3A7868EB9F}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{4AF6A51F-61FE-4482-855D-7E791AFC8C4F}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{FF1AABC8-30D6-452C-860F-5FEA4F722C53}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{33301A36-0D70-4EC2-8686-E5C1CEC6D466}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{A2E90318-2B9E-4ED3-A467-849A2135D20B}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{8261A617-6B4A-46BE-B8F0-44E05051DFA0}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{EBEA84BB-B4C1-4BD1-B25C-CE5AFB267323}"/>
+    <hyperlink ref="E3:E4" r:id="rId5" display="Admin@123" xr:uid="{562FFEE5-D38B-4B39-8FEF-34CB0B19EB79}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{D40E5322-C20A-4980-9DBE-4AD858E34B9D}"/>
+    <hyperlink ref="E6" r:id="rId7" display="Admin@123" xr:uid="{EDFFC656-ED64-4BB7-B32D-CCE5058B5069}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{22E947A0-F692-48A2-92C5-EFD1998B876D}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{27F8C873-2F77-466E-8338-B546014F1DAD}"/>
+    <hyperlink ref="E7" r:id="rId10" display="Admin@123" xr:uid="{81D5DBAF-4CB9-49D7-9189-7F4764BD8CE5}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{EE4E40FF-39AA-455D-9FB9-0A211405E3C6}"/>
+    <hyperlink ref="E8" r:id="rId12" display="Admin@123" xr:uid="{D21DD85B-C7CD-4488-895B-F605A0004271}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{9BB0B9D7-3042-45E0-9B84-2ED793194D4C}"/>
+    <hyperlink ref="E9" r:id="rId14" display="Admin@123" xr:uid="{805CFCA5-5752-4460-85B6-48B605DF6209}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{7844A75F-FCF4-49C6-AA78-A682D8B077B0}"/>
+    <hyperlink ref="E10" r:id="rId16" display="Admin@123" xr:uid="{82EF82DD-F7AE-40E5-89D4-59E52FAB9026}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{5CAC2F2B-D63E-4998-BC77-2ADD02A1C6B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6A460E-3435-4D03-A4DD-F123152E0FDD}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA52168-90D4-46C5-B6C2-F914678DF334}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>8</v>
@@ -2516,26 +3147,26 @@
         <v>9</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="25">
         <v>0</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="24">
         <v>1</v>
@@ -2544,75 +3175,75 @@
         <v>65444</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="24">
         <v>0</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="25">
         <v>1</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="24">
         <v>0</v>
       </c>
       <c r="C8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="24">
         <v>1</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="24">
         <v>0</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +3251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05ED21C-9819-4076-B9D4-698DE64F139C}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -2657,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -2665,296 +3296,296 @@
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6">
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6">
         <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="6">
         <v>5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6">
         <v>6</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="6">
         <v>7</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="6">
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6">
         <v>9</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="6">
         <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2965,12 +3596,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D025A5F-8108-4C36-9781-49E6577D5945}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,29 +3629,29 @@
         <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3031,23 +3662,23 @@
         <v>0</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="25">
         <v>0</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="24">
         <v>1</v>
@@ -3058,40 +3689,40 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="24">
         <v>0</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="25">
         <v>1</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="24">
         <v>0</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
@@ -3100,10 +3731,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E438EFC-DD63-44AA-99D5-0FFCB26AC8B7}">
   <dimension ref="A1:O52"/>
   <sheetViews>
@@ -3178,22 +3810,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>4</v>
@@ -3205,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>8</v>
@@ -3213,2124 +3845,2124 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>114</v>
-      </c>
       <c r="K3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N3" s="3">
         <v>1107</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N4" s="3">
         <v>1107</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G5" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N5" s="3">
         <v>1107</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="H6" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N6" s="3">
         <v>1107</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="H7" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N7" s="3">
         <v>1107</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N8" s="3">
         <v>1107</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N9" s="3">
         <v>1107</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N10" s="3">
         <v>1107</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N11" s="3">
         <v>1107</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N12" s="3">
         <v>1107</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N13" s="3">
         <v>1107</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N14" s="3">
         <v>1107</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="3">
         <v>1107</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N16" s="3">
         <v>1107</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G17" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N17" s="3">
         <v>1107</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N18" s="3">
         <v>1107</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="3">
         <v>1107</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N20" s="3">
         <v>1107</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N21" s="3">
         <v>1107</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="H22" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N22" s="3">
         <v>1107</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N23" s="3">
         <v>1107</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="5">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N24" s="3">
         <v>1107</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
       <c r="K25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N25" s="3">
         <v>1107</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N26" s="3">
         <v>1107</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N27" s="3">
         <v>1107</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G28" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N28" s="3">
         <v>1107</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="5">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N29" s="3">
         <v>1107</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N30" s="3">
         <v>1107</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N31" s="3">
         <v>1107</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N32" s="3">
         <v>1107</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G33" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N33" s="3">
         <v>1107</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" t="s">
-        <v>225</v>
-      </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N34" s="3">
         <v>1107</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N35" s="3">
         <v>1107</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N36" s="3">
         <v>1107</v>
       </c>
       <c r="O36" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N37" s="3">
         <v>1107</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N38" s="3">
         <v>1107</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N39" s="3">
         <v>1107</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N40" s="3">
         <v>1107</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N41" s="3">
         <v>1107</v>
       </c>
       <c r="O41" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N42" s="3">
         <v>1107</v>
       </c>
       <c r="O42" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G43" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="H43" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N43" s="3">
         <v>1107</v>
       </c>
       <c r="O43" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="5">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N44" s="3">
         <v>1107</v>
       </c>
       <c r="O44" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N45" s="3">
         <v>1107</v>
       </c>
       <c r="O45" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N46" s="3">
         <v>1107</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N47" s="3">
         <v>1107</v>
       </c>
       <c r="O47" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E48" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N48" s="3">
         <v>1107</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G49" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N49" s="3">
         <v>1107</v>
       </c>
       <c r="O49" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G50" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="H50" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N50" s="3">
         <v>1107</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N51" s="3">
         <v>1107</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
       <c r="K52" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N52" s="3">
         <v>1108</v>
       </c>
       <c r="O52" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
